--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-financial-help-type</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-organization-financial-help-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour préciser l'aide financière pour laquelle l'EG dispose d'une habilitation ou conventionnement qui permet aux personnes accueillies d'en bénéficier si elles remplissent les conditions.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:28:22+00:00</t>
+    <t>2023-02-17T16:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-organization-financial-help-type</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-financial-help-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:29:47+00:00</t>
+    <t>2022-06-29</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR pour préciser l'aide financière pour laquelle l'EG dispose d'une habilitation ou conventionnement qui permet aux personnes accueillies d'en bénéficier si elles remplissent les conditions.</t>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-financial-help-type</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-organization-financial-help-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2023-02-22T17:20:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour préciser l'aide financière pour laquelle l'EG dispose d'une habilitation ou conventionnement qui permet aux personnes accueillies d'en bénéficier si elles remplissent les conditions.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-organization-financial-help-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-financial-help-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-financial-help-type</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-financial-help-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T11:20:10+00:00</t>
+    <t>2022-06-29</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR pour préciser l'aide financière pour laquelle l'EG dispose d'une habilitation ou conventionnement qui permet aux personnes accueillies d'en bénéficier si elles remplissent les conditions.</t>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-financial-help-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-financial-help-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2023-02-24T16:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour préciser l'aide financière pour laquelle l'EG dispose d'une habilitation ou conventionnement qui permet aux personnes accueillies d'en bénéficier si elles remplissent les conditions.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,14 +332,27 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J31-AideFinanciere-ROR/FHIR/JDV-J31-AideFinanciere-ROR</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J31-AideFinanciere-ROR/FHIR/JDV-J31-AideFinanciere-ROR</t>
   </si>
 </sst>
 </file>
@@ -642,7 +655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -651,9 +664,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.9765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1277,26 +1290,26 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" s="2"/>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>99</v>
@@ -1314,6 +1327,109 @@
         <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>98</v>
       </c>
     </row>
